--- a/Multi-taxa_data/PLITs/extraction/PLIT_S1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1BA1E-B8D6-4ED2-91D6-388DE7CC0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408A21C6-9548-4D26-B075-816F96A8290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="D3" sheetId="4" r:id="rId3"/>
     <sheet name="S1" sheetId="5" r:id="rId4"/>
     <sheet name="S2" sheetId="6" r:id="rId5"/>
+    <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="718">
   <si>
     <t>D1</t>
   </si>
@@ -1984,13 +1985,223 @@
   </si>
   <si>
     <t>P6050460</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>P6050466</t>
+  </si>
+  <si>
+    <t>P6050466-7</t>
+  </si>
+  <si>
+    <t>P6050467</t>
+  </si>
+  <si>
+    <t>P6050467-8-9</t>
+  </si>
+  <si>
+    <t>P6050469</t>
+  </si>
+  <si>
+    <t>P6050469-70</t>
+  </si>
+  <si>
+    <t>P6050470</t>
+  </si>
+  <si>
+    <t>P6050471</t>
+  </si>
+  <si>
+    <t>P6050470-1</t>
+  </si>
+  <si>
+    <t>P6050471-2</t>
+  </si>
+  <si>
+    <t>P6050472</t>
+  </si>
+  <si>
+    <t>P6050472--74-75</t>
+  </si>
+  <si>
+    <t>P6050475</t>
+  </si>
+  <si>
+    <t>P6050475-6</t>
+  </si>
+  <si>
+    <t>P6050476</t>
+  </si>
+  <si>
+    <t>P6050476---79</t>
+  </si>
+  <si>
+    <t>P6050479</t>
+  </si>
+  <si>
+    <t>P6050479-80</t>
+  </si>
+  <si>
+    <t>P6050480-81</t>
+  </si>
+  <si>
+    <t>P6050481---84</t>
+  </si>
+  <si>
+    <t>P6050484</t>
+  </si>
+  <si>
+    <t>P6050484--87</t>
+  </si>
+  <si>
+    <t>P6050487</t>
+  </si>
+  <si>
+    <t>P6050487-8-9</t>
+  </si>
+  <si>
+    <t>P6050489</t>
+  </si>
+  <si>
+    <t>P6050490</t>
+  </si>
+  <si>
+    <t>P6050490-1</t>
+  </si>
+  <si>
+    <t>P6050491</t>
+  </si>
+  <si>
+    <t>P6050491-2</t>
+  </si>
+  <si>
+    <t>P6050492</t>
+  </si>
+  <si>
+    <t>P6050492-3</t>
+  </si>
+  <si>
+    <t>P6050493</t>
+  </si>
+  <si>
+    <t>P6050493-4</t>
+  </si>
+  <si>
+    <t>P6050494-5</t>
+  </si>
+  <si>
+    <t>P6050495</t>
+  </si>
+  <si>
+    <t>P6050495-6</t>
+  </si>
+  <si>
+    <t>P6050496-7</t>
+  </si>
+  <si>
+    <t>P6050497-8</t>
+  </si>
+  <si>
+    <t>P6050498</t>
+  </si>
+  <si>
+    <t>camera change</t>
+  </si>
+  <si>
+    <t>P6050077-8-9</t>
+  </si>
+  <si>
+    <t>P6050080-1</t>
+  </si>
+  <si>
+    <t>P6050081</t>
+  </si>
+  <si>
+    <t>P6050081-2</t>
+  </si>
+  <si>
+    <t>P6050082-3</t>
+  </si>
+  <si>
+    <t>P6050083-4</t>
+  </si>
+  <si>
+    <t>P6050084-5</t>
+  </si>
+  <si>
+    <t>P6050085</t>
+  </si>
+  <si>
+    <t>P6050085-6-7</t>
+  </si>
+  <si>
+    <t>P6050088-9</t>
+  </si>
+  <si>
+    <t>P6050089</t>
+  </si>
+  <si>
+    <t>P6050089--92</t>
+  </si>
+  <si>
+    <t>P6050094</t>
+  </si>
+  <si>
+    <t>P6050094---97</t>
+  </si>
+  <si>
+    <t>P6050097---100</t>
+  </si>
+  <si>
+    <t>P6050100-1</t>
+  </si>
+  <si>
+    <t>P6050101--4</t>
+  </si>
+  <si>
+    <t>P6050105-6-7</t>
+  </si>
+  <si>
+    <t>P6050107-8</t>
+  </si>
+  <si>
+    <t>P6050109</t>
+  </si>
+  <si>
+    <t>P6050109-10-11</t>
+  </si>
+  <si>
+    <t>P6050112-3-4</t>
+  </si>
+  <si>
+    <t>foliose</t>
+  </si>
+  <si>
+    <t>P6050114---17</t>
+  </si>
+  <si>
+    <t>P6050117-8-9</t>
+  </si>
+  <si>
+    <t>P6050120-1-2</t>
+  </si>
+  <si>
+    <t>P6050122-3-4</t>
+  </si>
+  <si>
+    <t>P6050124</t>
+  </si>
+  <si>
+    <t>P6050124-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2029,8 +2240,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2046,6 +2262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2078,7 +2300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2108,12 +2330,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -21140,7 +21379,7 @@
   </sheetPr>
   <dimension ref="A1:U234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -24956,4 +25195,4653 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C859A9-63D8-4B59-AF4A-265E126158BF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:U234"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="K150" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="10" width="8.59765625" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="22" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>136</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17">
+        <f>A6-A5</f>
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>145</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:C69" si="0">A7-A6</f>
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>160</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>163</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>165</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>191</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>197</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>208</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>212</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>229</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>233</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>265</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>298</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>316</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>335</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>337</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>349</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>352</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>396</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>429</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>436</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>452</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>458</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>465</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>497</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>502</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>540</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
+        <v>575</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
+        <v>638</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>642</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="18" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
+        <v>684</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="18" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>688</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
+        <v>743</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>750</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
+        <v>756</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>760</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>766</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>771</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>778</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>779</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>782</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>793</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>825</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>830</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="18" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>839</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="18" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <v>856</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <v>882</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>886</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>919</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
+        <v>922</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
+        <v>925</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="18" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="18">
+        <v>932</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="18" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>966</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
+        <v>974</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>978</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="18">
+        <v>986</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="L60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
+        <v>994</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="18" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>1003</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>1034</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>1038</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L64" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>1100</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L65" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>1164</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>1170</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>1211</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="18">
+        <v>1217</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="18">
+        <v>1221</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" ref="C70:C135" si="1">A71-A70</f>
+        <v>5</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="18">
+        <v>1226</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
+        <v>1259</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
+        <v>1262</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
+        <v>1286</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
+        <v>1294</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>1301</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <v>1306</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <v>1310</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <v>1322</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>1352</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
+        <v>1363</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="17">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="18" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <v>1416</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
+        <v>1425</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="18">
+        <v>1428</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="18">
+        <v>1434</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="17">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>1461</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="18">
+        <v>1466</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="17">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="18">
+        <v>1479</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="18">
+        <v>1495</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>1501</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="18">
+        <v>1506</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="18">
+        <v>1511</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="18" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="18">
+        <v>1543</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
+        <v>1567</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="17">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="18" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="18">
+        <v>1626</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="17">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="18" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>1654</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>1663</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="18">
+        <v>1669</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="18">
+        <v>1673</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="18">
+        <v>1676</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="18">
+        <v>1685</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="18">
+        <v>1703</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="18">
+        <v>1736</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="18" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="18">
+        <v>1766</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="18" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="18">
+        <v>1806</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="18" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>1810</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="18">
+        <v>1860</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="18">
+        <v>1865</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="17">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="18">
+        <v>1919</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="18">
+        <v>1924</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="18">
+        <v>1931</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="18">
+        <v>1939</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="17">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="18">
+        <v>2029</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="18">
+        <v>2032</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="17">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="17"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="18" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="18">
+        <v>2115</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="18">
+        <v>2139</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="18">
+        <v>2177</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="17">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="L117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="18">
+        <v>2205</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="18">
+        <v>2217</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="18">
+        <v>2231</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="18">
+        <v>2240</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="18">
+        <v>2252</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="18" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="18">
+        <v>2285</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="18">
+        <v>2300</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="18">
+        <v>2304</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="18">
+        <v>2310</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="17">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="18">
+        <v>2323</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="18">
+        <v>2330</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="18">
+        <v>2338</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="17">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="18">
+        <v>2382</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
+        <v>2391</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="18" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="18">
+        <v>2427</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="18">
+        <v>2432</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="18">
+        <v>2435</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="17">
+        <f t="shared" ref="C134" si="2">A135-A134</f>
+        <v>20</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="18">
+        <v>2455</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="18">
+        <v>2485</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="17">
+        <f t="shared" ref="C136:C140" si="3">A137-A136</f>
+        <v>1</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="18">
+        <v>2486</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="18">
+        <v>2492</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="17">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="18" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="18">
+        <v>2530</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="17">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="L139" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="18">
+        <v>2620</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="18">
+        <v>2622</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="17">
+        <f t="shared" ref="C134:C167" si="4">A142-A141</f>
+        <v>2</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="18">
+        <v>2624</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="17">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="18">
+        <v>2629</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="17">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="18" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="18">
+        <v>2700</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="18">
+        <v>2709</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="17">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="19"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="18">
+        <v>2716</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="17">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="18">
+        <v>2729</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="18">
+        <v>2733</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="17">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="18">
+        <v>2761</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="17">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="18" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="18">
+        <v>2800</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="18">
+        <v>2810</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="18">
+        <v>2812</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="17">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="18">
+        <v>2819</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="17">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="18">
+        <v>2826</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="18">
+        <v>2830</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="18">
+        <v>2836</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="18">
+        <v>2852</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="18">
+        <v>2856</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="18">
+        <v>2862</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="18">
+        <v>2871</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="18">
+        <v>2880</v>
+      </c>
+      <c r="B161" s="23"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="23"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="23"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="23"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="23"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="23"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="23"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="23"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="23"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="23"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="23"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="23"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="23"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="23"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="23"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="23"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="23"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="23"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="23"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="23"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="23"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="23"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="23"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="23"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="23"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="23"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="23"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="23"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="23"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="23"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="23"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="23"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="23"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="23"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="23"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="23"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="23"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="23"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="23"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="23"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="23"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="23"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="23"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="23"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="23"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="23"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="23"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="23"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="23"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="23"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="23"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="17"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="23"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="17"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="K191" s="6"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="K192" s="6"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="K193" s="6"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="K194" s="6"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="K195" s="6"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="K196" s="6"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="K197" s="6"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="K198" s="6"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="K199" s="6"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="K200" s="6"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="K203" s="6"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="K209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="K210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="6"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="K211" s="6"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="K212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="K215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="K217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="K219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="K220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="K221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="K223" s="6"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="K224" s="6"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="K225" s="6"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="K226" s="6"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="K227" s="6"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="K228" s="6"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="K229" s="6"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="K230" s="6"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="K231" s="6"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="K232" s="6"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="K233" s="6"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Multi-taxa_data/PLITs/extraction/PLIT_S1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE804A4-BFCB-47C9-8B45-652F5BA22266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F585393-964E-4E69-A126-5D93DDB2AF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$224</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$U$282</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$U$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2554,11 +2556,11 @@
   </sheetPr>
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7567,10 +7569,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11507,7 +11509,7 @@
       </c>
       <c r="C211" s="6">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>36</v>
@@ -11518,17 +11520,17 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>2579</v>
+        <v>2569</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C212" s="6">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>273</v>
@@ -11806,6 +11808,7 @@
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U224" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11818,10 +11821,10 @@
   <dimension ref="A1:U282"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D283" sqref="D283"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17024,11 +17027,11 @@
   </sheetPr>
   <dimension ref="A1:U237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J76" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17046,7 +17049,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -17064,7 +17067,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -17080,7 +17083,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -17099,7 +17102,7 @@
       <c r="L3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -17144,7 +17147,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>73</v>
       </c>
@@ -17171,7 +17174,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>76</v>
       </c>
@@ -17193,7 +17196,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>81</v>
       </c>
@@ -17215,7 +17218,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>88</v>
       </c>
@@ -17241,7 +17244,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>90</v>
       </c>
@@ -17267,7 +17270,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>94</v>
       </c>
@@ -17289,7 +17292,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>110</v>
       </c>
@@ -17309,7 +17312,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>131</v>
       </c>
@@ -17329,7 +17332,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>135</v>
       </c>
@@ -17350,7 +17353,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>147</v>
       </c>
@@ -17371,7 +17374,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>150</v>
       </c>
@@ -17391,7 +17394,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>157</v>
       </c>
@@ -17410,7 +17413,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>188</v>
       </c>
@@ -17428,7 +17431,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>191</v>
       </c>
@@ -17448,7 +17451,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>203</v>
       </c>
@@ -17467,7 +17470,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>211</v>
       </c>
@@ -17485,7 +17488,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>214</v>
       </c>
@@ -17503,7 +17506,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>235</v>
       </c>
@@ -17522,7 +17525,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>247</v>
       </c>
@@ -17560,7 +17563,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>249</v>
       </c>
@@ -17577,7 +17580,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>251</v>
       </c>
@@ -17596,7 +17599,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>256</v>
       </c>
@@ -17615,7 +17618,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>261</v>
       </c>
@@ -17633,7 +17636,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>265</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>293</v>
       </c>
@@ -17669,7 +17672,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>298</v>
       </c>
@@ -17687,7 +17690,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>325</v>
       </c>
@@ -17705,7 +17708,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>329</v>
       </c>
@@ -17723,7 +17726,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>361</v>
       </c>
@@ -17741,7 +17744,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>363</v>
       </c>
@@ -17759,7 +17762,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>366</v>
       </c>
@@ -17777,7 +17780,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>370</v>
       </c>
@@ -17795,7 +17798,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>380</v>
       </c>
@@ -17813,7 +17816,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>387</v>
       </c>
@@ -17831,7 +17834,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>397</v>
       </c>
@@ -17849,7 +17852,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>398</v>
       </c>
@@ -17867,7 +17870,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>400</v>
       </c>
@@ -17884,7 +17887,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>405</v>
       </c>
@@ -17902,7 +17905,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>411</v>
       </c>
@@ -17920,7 +17923,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>414</v>
       </c>
@@ -17939,7 +17942,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>420</v>
       </c>
@@ -17958,7 +17961,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>423</v>
       </c>
@@ -17976,7 +17979,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>432</v>
       </c>
@@ -17994,7 +17997,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>434</v>
       </c>
@@ -18012,7 +18015,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>441</v>
       </c>
@@ -18030,7 +18033,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>446</v>
       </c>
@@ -18048,7 +18051,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>450</v>
       </c>
@@ -18066,7 +18069,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>452</v>
       </c>
@@ -18084,7 +18087,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>473</v>
       </c>
@@ -18102,7 +18105,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>476</v>
       </c>
@@ -18120,7 +18123,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>484</v>
       </c>
@@ -18138,7 +18141,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>488</v>
       </c>
@@ -18156,7 +18159,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>494</v>
       </c>
@@ -18174,7 +18177,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>503</v>
       </c>
@@ -18192,7 +18195,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>506</v>
       </c>
@@ -18210,7 +18213,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>516</v>
       </c>
@@ -18228,7 +18231,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>518</v>
       </c>
@@ -18247,7 +18250,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>522</v>
       </c>
@@ -18265,7 +18268,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>525</v>
       </c>
@@ -18282,7 +18285,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>527</v>
       </c>
@@ -18302,7 +18305,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>532</v>
       </c>
@@ -18320,7 +18323,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>535</v>
       </c>
@@ -18338,7 +18341,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>550</v>
       </c>
@@ -18356,7 +18359,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>556</v>
       </c>
@@ -18375,7 +18378,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>557</v>
       </c>
@@ -18393,7 +18396,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>559</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>566</v>
       </c>
@@ -18429,7 +18432,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>570</v>
       </c>
@@ -18448,7 +18451,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>578</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>623</v>
       </c>
@@ -18484,7 +18487,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>644</v>
       </c>
@@ -18502,7 +18505,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>654</v>
       </c>
@@ -18521,7 +18524,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>657</v>
       </c>
@@ -18540,7 +18543,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>667</v>
       </c>
@@ -18558,7 +18561,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>689</v>
       </c>
@@ -18576,7 +18579,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>743</v>
       </c>
@@ -18594,7 +18597,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>747</v>
       </c>
@@ -18612,7 +18615,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>788</v>
       </c>
@@ -18630,7 +18633,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>791</v>
       </c>
@@ -18648,7 +18651,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>794</v>
       </c>
@@ -18669,7 +18672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>818</v>
       </c>
@@ -18690,7 +18693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>822</v>
       </c>
@@ -18706,7 +18709,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>825</v>
       </c>
@@ -18724,7 +18727,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>870</v>
       </c>
@@ -18742,7 +18745,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>874</v>
       </c>
@@ -18760,7 +18763,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>917</v>
       </c>
@@ -18778,7 +18781,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>946</v>
       </c>
@@ -18796,7 +18799,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>950</v>
       </c>
@@ -18814,7 +18817,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>978</v>
       </c>
@@ -18832,7 +18835,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>985</v>
       </c>
@@ -18850,7 +18853,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>990</v>
       </c>
@@ -18868,7 +18871,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>993</v>
       </c>
@@ -18886,7 +18889,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1014</v>
       </c>
@@ -18904,7 +18907,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1017</v>
       </c>
@@ -18922,7 +18925,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1026</v>
       </c>
@@ -18940,7 +18943,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1030</v>
       </c>
@@ -18958,7 +18961,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1039</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1042</v>
       </c>
@@ -18997,7 +19000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1078</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1113</v>
       </c>
@@ -19036,7 +19039,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1132</v>
       </c>
@@ -19054,7 +19057,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1140</v>
       </c>
@@ -19072,7 +19075,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1142</v>
       </c>
@@ -19093,7 +19096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1160</v>
       </c>
@@ -19114,7 +19117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1163</v>
       </c>
@@ -19132,7 +19135,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1168</v>
       </c>
@@ -19150,7 +19153,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1172</v>
       </c>
@@ -19168,7 +19171,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1175</v>
       </c>
@@ -19186,7 +19189,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1180</v>
       </c>
@@ -19204,7 +19207,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1202</v>
       </c>
@@ -19223,7 +19226,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1203</v>
       </c>
@@ -19241,7 +19244,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1209</v>
       </c>
@@ -19260,7 +19263,7 @@
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1241</v>
       </c>
@@ -19276,7 +19279,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1248</v>
       </c>
@@ -19294,7 +19297,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>1252</v>
       </c>
@@ -19312,7 +19315,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>1256</v>
       </c>
@@ -19330,7 +19333,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1261</v>
       </c>
@@ -19348,7 +19351,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1357</v>
       </c>
@@ -19366,7 +19369,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1362</v>
       </c>
@@ -19385,7 +19388,7 @@
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>1364</v>
       </c>
@@ -19403,7 +19406,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>1378</v>
       </c>
@@ -19419,7 +19422,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>1404</v>
       </c>
@@ -19437,7 +19440,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>1406</v>
       </c>
@@ -19455,7 +19458,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>1414</v>
       </c>
@@ -19471,7 +19474,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>1416</v>
       </c>
@@ -19489,7 +19492,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>1431</v>
       </c>
@@ -19507,7 +19510,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>1440</v>
       </c>
@@ -19525,7 +19528,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>1450</v>
       </c>
@@ -19543,7 +19546,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>1451</v>
       </c>
@@ -19561,7 +19564,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1456</v>
       </c>
@@ -19579,7 +19582,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>1471</v>
       </c>
@@ -19597,7 +19600,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>1474</v>
       </c>
@@ -19615,7 +19618,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1488</v>
       </c>
@@ -19633,7 +19636,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1491</v>
       </c>
@@ -19651,7 +19654,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1493</v>
       </c>
@@ -19669,7 +19672,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1498</v>
       </c>
@@ -19687,7 +19690,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1514</v>
       </c>
@@ -19705,7 +19708,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1519</v>
       </c>
@@ -19723,7 +19726,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1523</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>1557</v>
       </c>
@@ -19759,7 +19762,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>1563</v>
       </c>
@@ -19775,7 +19778,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1567</v>
       </c>
@@ -19793,7 +19796,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1571</v>
       </c>
@@ -19812,7 +19815,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>1624</v>
       </c>
@@ -19830,7 +19833,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>1629</v>
       </c>
@@ -19848,7 +19851,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>1636</v>
       </c>
@@ -19866,7 +19869,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>1642</v>
       </c>
@@ -19885,7 +19888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>1666</v>
       </c>
@@ -19906,7 +19909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>1700</v>
       </c>
@@ -19922,7 +19925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>1706</v>
       </c>
@@ -19940,7 +19943,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>1714</v>
       </c>
@@ -19958,7 +19961,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>1722</v>
       </c>
@@ -19976,7 +19979,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>1747</v>
       </c>
@@ -19994,7 +19997,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>1751</v>
       </c>
@@ -20012,7 +20015,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>1773</v>
       </c>
@@ -20028,7 +20031,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>1771</v>
       </c>
@@ -20046,7 +20049,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>1780</v>
       </c>
@@ -20064,7 +20067,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>1790</v>
       </c>
@@ -20082,7 +20085,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1793</v>
       </c>
@@ -20103,7 +20106,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>1861</v>
       </c>
@@ -20124,7 +20127,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>1863</v>
       </c>
@@ -20142,7 +20145,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>1867</v>
       </c>
@@ -20160,7 +20163,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>1871</v>
       </c>
@@ -20178,7 +20181,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>1879</v>
       </c>
@@ -20196,7 +20199,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>1900</v>
       </c>
@@ -20214,7 +20217,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>1920</v>
       </c>
@@ -20232,7 +20235,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>1925</v>
       </c>
@@ -20250,7 +20253,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>1928</v>
       </c>
@@ -20268,7 +20271,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>1962</v>
       </c>
@@ -20286,7 +20289,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>1991</v>
       </c>
@@ -20304,7 +20307,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>1994</v>
       </c>
@@ -21368,10 +21371,10 @@
   <dimension ref="A1:U234"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C92" sqref="C92"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25150,36 +25153,37 @@
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="C233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U190" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -25187,13 +25191,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C859A9-63D8-4B59-AF4A-265E126158BF}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U234"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D101" sqref="D99:D101"/>
@@ -25341,7 +25345,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>145</v>
       </c>
@@ -25437,7 +25441,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>191</v>
       </c>
@@ -25520,7 +25524,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>229</v>
       </c>
@@ -25541,7 +25545,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>233</v>
       </c>
@@ -25580,7 +25584,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>298</v>
       </c>
@@ -25618,7 +25622,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>335</v>
       </c>
@@ -25655,7 +25659,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>349</v>
       </c>
@@ -25690,7 +25694,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>396</v>
       </c>
@@ -25728,7 +25732,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>436</v>
       </c>
@@ -25766,7 +25770,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>458</v>
       </c>
@@ -25806,7 +25810,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>497</v>
       </c>
@@ -25842,7 +25846,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>540</v>
       </c>
@@ -25914,7 +25918,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>684</v>
       </c>
@@ -25950,7 +25954,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>743</v>
       </c>
@@ -25966,7 +25970,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>750</v>
       </c>
@@ -26038,7 +26042,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>771</v>
       </c>
@@ -26075,7 +26079,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>779</v>
       </c>
@@ -26112,7 +26116,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>793</v>
       </c>
@@ -26131,7 +26135,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>825</v>
       </c>
@@ -26167,7 +26171,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>839</v>
       </c>
@@ -26203,7 +26207,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>882</v>
       </c>
@@ -26239,7 +26243,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>919</v>
       </c>
@@ -26275,7 +26279,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>925</v>
       </c>
@@ -26311,7 +26315,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>966</v>
       </c>
@@ -26347,7 +26351,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>978</v>
       </c>
@@ -26386,7 +26390,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>994</v>
       </c>
@@ -26423,7 +26427,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1034</v>
       </c>
@@ -26483,7 +26487,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1164</v>
       </c>
@@ -26519,7 +26523,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1211</v>
       </c>
@@ -26556,7 +26560,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1221</v>
       </c>
@@ -26592,7 +26596,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1259</v>
       </c>
@@ -26629,7 +26633,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>1286</v>
       </c>
@@ -26665,7 +26669,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1301</v>
       </c>
@@ -26683,7 +26687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1306</v>
       </c>
@@ -26702,7 +26706,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1310</v>
       </c>
@@ -26739,7 +26743,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1352</v>
       </c>
@@ -26775,7 +26779,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1416</v>
       </c>
@@ -26793,7 +26797,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1425</v>
       </c>
@@ -26809,7 +26813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1428</v>
       </c>
@@ -26845,7 +26849,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1461</v>
       </c>
@@ -26863,7 +26867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1466</v>
       </c>
@@ -26881,7 +26885,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1479</v>
       </c>
@@ -26917,7 +26921,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1501</v>
       </c>
@@ -26935,7 +26939,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1506</v>
       </c>
@@ -26953,7 +26957,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1511</v>
       </c>
@@ -26971,7 +26975,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1543</v>
       </c>
@@ -27025,7 +27029,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1654</v>
       </c>
@@ -27061,7 +27065,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1669</v>
       </c>
@@ -27097,7 +27101,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1676</v>
       </c>
@@ -27133,7 +27137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1703</v>
       </c>
@@ -27151,7 +27155,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1736</v>
       </c>
@@ -27187,7 +27191,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1806</v>
       </c>
@@ -27223,7 +27227,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1860</v>
       </c>
@@ -27260,7 +27264,7 @@
       </c>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1919</v>
       </c>
@@ -27296,7 +27300,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1931</v>
       </c>
@@ -27332,7 +27336,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2029</v>
       </c>
@@ -27350,7 +27354,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2032</v>
       </c>
@@ -27369,7 +27373,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2115</v>
       </c>
@@ -27406,7 +27410,7 @@
       </c>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2177</v>
       </c>
@@ -27445,7 +27449,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2217</v>
       </c>
@@ -27466,7 +27470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2231</v>
       </c>
@@ -27484,7 +27488,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2240</v>
       </c>
@@ -27520,7 +27524,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2285</v>
       </c>
@@ -27557,7 +27561,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2304</v>
       </c>
@@ -27575,7 +27579,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2310</v>
       </c>
@@ -27611,7 +27615,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2330</v>
       </c>
@@ -27647,7 +27651,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2382</v>
       </c>
@@ -27683,7 +27687,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2427</v>
       </c>
@@ -27701,7 +27705,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2432</v>
       </c>
@@ -27719,7 +27723,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2435</v>
       </c>
@@ -27755,7 +27759,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2485</v>
       </c>
@@ -27791,7 +27795,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2492</v>
       </c>
@@ -27809,7 +27813,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2530</v>
       </c>
@@ -27851,7 +27855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2622</v>
       </c>
@@ -27869,7 +27873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2624</v>
       </c>
@@ -27905,7 +27909,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2700</v>
       </c>
@@ -27942,7 +27946,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2716</v>
       </c>
@@ -27978,7 +27982,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2733</v>
       </c>
@@ -27996,7 +28000,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2761</v>
       </c>
@@ -28014,7 +28018,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2800</v>
       </c>
@@ -28104,7 +28108,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2830</v>
       </c>
@@ -28122,7 +28126,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2836</v>
       </c>
@@ -28158,7 +28162,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2856</v>
       </c>
@@ -28194,7 +28198,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2871</v>
       </c>
@@ -28212,7 +28216,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2880</v>
       </c>
@@ -28223,7 +28227,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
@@ -28732,13 +28736,7 @@
       <c r="A234" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U162" xr:uid="{94C859A9-63D8-4B59-AF4A-265E126158BF}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="algae"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:U162" xr:uid="{94C859A9-63D8-4B59-AF4A-265E126158BF}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
